--- a/data/output/bases-separadas/-9.xlsx
+++ b/data/output/bases-separadas/-9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>91950261000128</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>04601557000139</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>14256943000194</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04471006000106</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2470728000102</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03173065000127</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>10948631000190</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07075810000156</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2337399000126</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03726370000107</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>4782916000100</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05498875000189</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>66096710000175</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05814246000110</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>44832368000191</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04928281000106</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>21881310000132</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0565905000109</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2327937000100</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03705794000187</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2077618000185</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01901904000150</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>17416757000163</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08963150000102</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>15180742000113</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08294796000144</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>8560510000125</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01995050000119</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>13743314000126</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04483695000160</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>5317665000147</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07673114000141</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>8850788000137</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09252766000138</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>21029820000186</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06986459000192</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>5132492000192</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>03547127000113</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>18594830000150</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>02679522000197</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>74183567000187</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08906610000160</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>11783868000121</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07991507000284</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>91983007000126</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01136535000157</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>18269073000149</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0389481003275</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1316665000171</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02950028000115</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26047068000110</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08879138000114</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>3229795000100</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0847979000138</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>21301766000186</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>06256546000194</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>21286910000152</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>01736193000106</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>77804599000140</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>06941800000193</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>22496612000150</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04058679000392</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>66781816000108</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>03392348000160</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>9209716000178</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04476272000113</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>22596567000105</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>07101952000140</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>19841326000170</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05547804000129</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>6645688000143</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09596536000358</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>63023055000137</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04920048000179</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>10759790000147</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>09400328000170</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>3282774000140</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>02300466000138</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>15772746000190</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>07942537000110</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1547029000150</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04365017001507</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>11314980000113</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>04365017000101</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>9532523000153</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01761981000152</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>15424841000101</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>07137354000121</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>4275438000133</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08216364000115</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>12200971000164</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04381438000118</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>4741395000215</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02936481000177</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>3401873000102</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04049438000115</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>4940191000122</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04218021000139</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1191226000180</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>06216101000180</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>8568622000122</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>03308164000179</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>22987367000183</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>07553417000120</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>2303624000103</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>02272901000168</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>16933590000145</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04822971000178</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>4679877000101</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>09557452000143</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>5564404000121</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>07031916001804</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>320527000284</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>02056113000134</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>10650818000103</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04739679000196</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>9116541000154</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>06224106000155</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>64814569000173</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04562327000108</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>6894543000186</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>02334970000159</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>15805141000159</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>08869012000169</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>9506555000184</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>02063738000123</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>2891395000195</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05342994000148</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>10620397000178</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>08742577000180</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>81857112000165</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>03044635000189</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>14773721000149</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01198470000174</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>10169243000101</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>09588117000102</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>19970757000136</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04987922000195</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>17422902000119</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>09552818000353</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>10422938000153</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>02256866000274</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>35474949000450</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04122618000185</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>91943423000109</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>05477447000170</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>3631148000112</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>09452900000144</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>308363000199</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>08417590000245</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>7044171000161</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>09644354000143</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>8720977000195</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>08328764000112</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>7280328000158</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>03764606000191</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>7280328001715</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>07419186000167</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>7280328001804</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0710539000134</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>21976650000147</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>03101474000118</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>4834392000145</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>08965537000106</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>19000225000176</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>06138188000115</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>87556601000163</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>011615756000161</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>4437534001455</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>07514425000249</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>9510802000116</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04713870000169</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>19842283000147</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>08946544000152</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>24818450000154</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05694833000113</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>10350453000100</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>03472021000106</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>83230896000122</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04664005000170</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>52548435000411</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>02515472000102</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>47876552000121</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>07227770000110</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>8232734000108</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>07288086000149</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>19907415000171</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>09233246000188</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>1400885000189</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>03983216000102</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>4167727000119</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>06047258000120</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>18497379000152</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0434116000139</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>81516429000138</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>01079193000180</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>84586205000190</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04339119000144</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>7835954000163</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0502777000154</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
